--- a/slr_SPL_scoping/QA Results.xlsx
+++ b/slr_SPL_scoping/QA Results.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhGR7CpbnPTr4dyxmbebKRGCraRVQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhb3gyblml/LGKu2F3yE3yTFBZdtw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="53">
   <si>
     <t>QA Results</t>
   </si>
@@ -43,149 +43,146 @@
     <t>Total</t>
   </si>
   <si>
+    <t>A comprehensive product line scoping approach and its validation</t>
+  </si>
+  <si>
+    <t>A method to optimize the scope of a software product platform based on end-user features</t>
+  </si>
+  <si>
+    <t>A practical guide to product line scoping</t>
+  </si>
+  <si>
+    <t>Multi-level product line customization</t>
+  </si>
+  <si>
+    <t>On extracting feature models from product descriptions</t>
+  </si>
+  <si>
+    <t>A collaborative approach for product line scoping: A case study in collaboration engineering</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>A Collaborative Method for a Tangible Software Product Line Scoping</t>
+  </si>
+  <si>
+    <t>A hybrid approach to suggest software product line portfolios</t>
+  </si>
+  <si>
+    <t>A method for product line scoping based on a Decision-Making framework</t>
+  </si>
+  <si>
+    <t>A systematic approach to derive the scope of software product lines</t>
+  </si>
+  <si>
+    <t>Commonality and variability analysis in industrial practice for product line improvement</t>
+  </si>
+  <si>
+    <t>Customizable domain analysis</t>
+  </si>
+  <si>
+    <t>Evaluation of a method for proactively managing the evolving scope of a software product line</t>
+  </si>
+  <si>
+    <t>Experiences initiating software product line engineering in small teams with pulse</t>
+  </si>
+  <si>
+    <t>Implementation issues in product line scoping</t>
+  </si>
+  <si>
+    <t>Risk management in software product lines: An industrial case study</t>
+  </si>
+  <si>
+    <t>Scoping automation in software product lines</t>
+  </si>
+  <si>
+    <t>Software product line scoping and requirements engineering in a small and medium-sized enterprise: An industrial case study</t>
+  </si>
+  <si>
+    <t>The Pro-PD Process Model for Product Derivation within software product lines</t>
+  </si>
+  <si>
+    <t>Toward a hybrid approach to generate Software Product Line portfolios</t>
+  </si>
+  <si>
+    <t>Towards a requirement-based approach to support early decisions in Software Product Line Engineering</t>
+  </si>
+  <si>
+    <t>Using Documentation for Product Line Scoping</t>
+  </si>
+  <si>
+    <t>A systematic method for scoping core assets in product line engineering</t>
+  </si>
+  <si>
+    <t>An agile scoping process for Software Product Lines</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Applying product line concepts in small and medium-sized companies</t>
+  </si>
+  <si>
+    <t>Architectural reasoning for dynamic software product lines</t>
+  </si>
+  <si>
+    <t>Evolutionary robust optimization for software product line scoping: An explorative study</t>
+  </si>
+  <si>
+    <t>Extending variability management to the next level</t>
+  </si>
+  <si>
+    <t>Product portfolio scope optimization based on features and goals</t>
+  </si>
+  <si>
+    <t>Scope extension of an existing product line</t>
+  </si>
+  <si>
+    <t>Similarity analysis within product line scoping: An evaluation of a semi-automatic approach</t>
+  </si>
+  <si>
+    <t>Software product line evolution: The Selecta system</t>
+  </si>
+  <si>
+    <t>Towards metamodel support for variability and traceability in software product lines</t>
+  </si>
+  <si>
+    <t>Value-Based Portfolio Optimization for Software Product Lines</t>
+  </si>
+  <si>
     <t>An Empirical Study of the Improved SPLD Framework using Expert Opinion Technique</t>
   </si>
   <si>
-    <t>Partial</t>
-  </si>
-  <si>
     <t>Decision support for moving from a single product to a product portfolio in evolving software systems</t>
   </si>
   <si>
-    <t>A comprehensive product line scoping approach and its validation</t>
-  </si>
-  <si>
     <t>DRAMA: A framework for domain requirements analysis and modeling architectures in software product lines</t>
   </si>
   <si>
     <t>Identifying Collaborative Aspects During Software Product Lines Scoping</t>
   </si>
   <si>
-    <t>A method to optimize the scope of a software product platform based on end-user features</t>
-  </si>
-  <si>
     <t>A framework for evaluating reusability of core asset in product line engineering</t>
   </si>
   <si>
-    <t>A practical guide to product line scoping</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Multi-level product line customization</t>
-  </si>
-  <si>
     <t>A Secure Framework for Software Product Line Development</t>
   </si>
   <si>
-    <t>On extracting feature models from product descriptions</t>
-  </si>
-  <si>
     <t>Introducing the PuLSE approach to an embedded system population at Testo AG</t>
   </si>
   <si>
     <t>PuLSE-I: Deriving instances from a product line infrastructure</t>
   </si>
   <si>
-    <t>A collaborative approach for product line scoping: A case study in collaboration engineering</t>
-  </si>
-  <si>
     <t>Providing Feedback from Application to Family Engineering - The Product Line Planning Game at the Testo AG</t>
-  </si>
-  <si>
-    <t>A Collaborative Method for a Tangible Software Product Line Scoping</t>
-  </si>
-  <si>
-    <t>A hybrid approach to suggest software product line portfolios</t>
-  </si>
-  <si>
-    <t>A method for product line scoping based on a Decision-Making framework</t>
-  </si>
-  <si>
-    <t>A systematic approach to derive the scope of software product lines</t>
-  </si>
-  <si>
-    <t>Commonality and variability analysis in industrial practice for product line improvement</t>
-  </si>
-  <si>
-    <t>Customizable domain analysis</t>
-  </si>
-  <si>
-    <t>Evaluation of a method for proactively managing the evolving scope of a software product line</t>
-  </si>
-  <si>
-    <t>Evidence of software inspection on feature specification for software product lines</t>
-  </si>
-  <si>
-    <t>Experiences initiating software product line engineering in small teams with pulse</t>
-  </si>
-  <si>
-    <t>Implementation issues in product line scoping</t>
-  </si>
-  <si>
-    <t>Risk management in software product lines: An industrial case study</t>
-  </si>
-  <si>
-    <t>Scoping automation in software product lines</t>
-  </si>
-  <si>
-    <t>Software product line scoping and requirements engineering in a small and medium-sized enterprise: An industrial case study</t>
-  </si>
-  <si>
-    <t>The Pro-PD Process Model for Product Derivation within software product lines</t>
-  </si>
-  <si>
-    <t>Toward a hybrid approach to generate Software Product Line portfolios</t>
-  </si>
-  <si>
-    <t>Towards a requirement-based approach to support early decisions in Software Product Line Engineering</t>
-  </si>
-  <si>
-    <t>Using Documentation for Product Line Scoping</t>
-  </si>
-  <si>
-    <t>A systematic method for scoping core assets in product line engineering</t>
-  </si>
-  <si>
-    <t>An agile scoping process for Software Product Lines</t>
-  </si>
-  <si>
-    <t>Applying product line concepts in small and medium-sized companies</t>
-  </si>
-  <si>
-    <t>Architectural reasoning for dynamic software product lines</t>
-  </si>
-  <si>
-    <t>Evolutionary robust optimization for software product line scoping: An explorative study</t>
-  </si>
-  <si>
-    <t>Extending variability management to the next level</t>
-  </si>
-  <si>
-    <t>Product portfolio scope optimization based on features and goals</t>
-  </si>
-  <si>
-    <t>Scope extension of an existing product line</t>
-  </si>
-  <si>
-    <t>Similarity analysis within product line scoping: An evaluation of a semi-automatic approach</t>
-  </si>
-  <si>
-    <t>Software product line evolution: The Selecta system</t>
-  </si>
-  <si>
-    <t>Towards metamodel support for variability and traceability in software product lines</t>
-  </si>
-  <si>
-    <t>Value-Based Portfolio Optimization for Software Product Lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -193,11 +190,7 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -207,11 +200,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -230,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -239,16 +227,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -503,653 +490,636 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
         <v>3.0</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
         <v>3.0</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
         <v>3.0</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
         <v>2.5</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
         <v>2.5</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
         <v>2.5</v>
       </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
         <v>2.5</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3">
         <v>2.5</v>
       </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3">
         <v>2.5</v>
       </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
         <v>2.5</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
+      <c r="E27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="4">
         <v>2.0</v>
       </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4">
         <v>2.0</v>
       </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F38" s="8"/>
-    </row>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1"/>
     <row r="39" ht="14.25" customHeight="1"/>
     <row r="40" ht="14.25" customHeight="1"/>
     <row r="41" ht="14.25" customHeight="1"/>
@@ -2111,10 +2081,9 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:D38">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:D37">
       <formula1>"Total,Partial,None"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2145,13 +2114,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2159,160 +2128,160 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="A6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="A10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8">
         <v>1.5</v>
       </c>
     </row>
